--- a/datamares/OLR/OLR_datamares_kelp.xlsx
+++ b/datamares/OLR/OLR_datamares_kelp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\datamares\Working_Metadata\Batch_2_kelp_forest_2016-10-14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\domm-metadata\datamares\OLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1944,13 +1944,13 @@
     <t>Software used: Microsoft Excel. Coordinate system: WGS 1984.</t>
   </si>
   <si>
-    <t>Northeastern Pacific | Baja California</t>
-  </si>
-  <si>
-    <t>Fish community | Monitoring program | Kelp forests</t>
-  </si>
-  <si>
     <t>Ramirez-Valdez, Arturo; Montaño-Moctezuma, Gabriela; Torres-Moye, Guillermo (20##): Counting fish in the kelp forests of Baja California. In dataMares Project: Kelp Forest Project. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Baja California (Mexico : Peninsula)</t>
+  </si>
+  <si>
+    <t>Ecological community | Environmental monitoring | Kelp forest</t>
   </si>
 </sst>
 </file>
@@ -3102,10 +3102,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
+      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3259,7 +3259,7 @@
         <v>630</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="R2" s="17" t="s">
         <v>632</v>
@@ -3274,10 +3274,10 @@
         <v>631</v>
       </c>
       <c r="V2" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="W2" s="17" t="s">
         <v>640</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>639</v>
       </c>
       <c r="X2" s="19" t="s">
         <v>634</v>

--- a/datamares/OLR/OLR_datamares_kelp.xlsx
+++ b/datamares/OLR/OLR_datamares_kelp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="640">
   <si>
     <t>text</t>
   </si>
@@ -1930,12 +1930,6 @@
   </si>
   <si>
     <t>Counting fish in the Kelp forests of Baja California @ http://dx.doi.org/10.13022/M3BC7X</t>
-  </si>
-  <si>
-    <t>EMBARGO DATE</t>
-  </si>
-  <si>
-    <t>2020-01-01</t>
   </si>
   <si>
     <t>The data described here have been embargoed until 2020-01-01. Inquiries should be directed to Arturo Ramirez-Valdez (arturorv@ucsd.edu).</t>
@@ -3100,39 +3094,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.140625" style="21" customWidth="1"/>
-    <col min="18" max="21" width="39.140625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="35.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36.85546875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="45.7109375" style="3" customWidth="1"/>
-    <col min="25" max="25" width="55" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.140625" style="21" customWidth="1"/>
+    <col min="17" max="20" width="39.140625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="35.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="36.85546875" style="3" customWidth="1"/>
+    <col min="23" max="23" width="45.7109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="55" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>338</v>
       </c>
@@ -3140,76 +3133,73 @@
         <v>486</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>635</v>
+        <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="I1" s="16" t="s">
+        <v>284</v>
+      </c>
       <c r="J1" s="16" t="s">
-        <v>284</v>
+        <v>132</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>105</v>
+        <v>450</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>352</v>
       </c>
+      <c r="Q1" s="16" t="s">
+        <v>4</v>
+      </c>
       <c r="R1" s="16" t="s">
-        <v>4</v>
+        <v>354</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>354</v>
+        <v>507</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>506</v>
+        <v>460</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="W1" s="16" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="X1" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="Y1" s="16" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:25" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>621</v>
       </c>
@@ -3217,85 +3207,82 @@
         <v>485</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="S2" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>627</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>624</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>622</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>628</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q2" s="21" t="s">
+      <c r="T2" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="U2" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="R2" s="17" t="s">
-        <v>632</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="T2" s="17" t="s">
+      <c r="V2" s="17" t="s">
         <v>638</v>
       </c>
-      <c r="U2" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>641</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>640</v>
+      <c r="W2" s="19" t="s">
+        <v>634</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>634</v>
-      </c>
-      <c r="Y2" s="19" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="Z3" s="3"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Z5" s="3"/>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y5" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:C4 B2:C2 B6:C1048576 B1">
+  <conditionalFormatting sqref="B4 B6:B1048576 B1:B2">
     <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="    \Sub-component">
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B1)))</formula>
     </cfRule>
@@ -3312,7 +3299,7 @@
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C3">
+  <conditionalFormatting sqref="B3">
     <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="    \Sub-component">
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B3)))</formula>
     </cfRule>
@@ -3329,7 +3316,7 @@
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5">
+  <conditionalFormatting sqref="B5">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="    \Sub-component">
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B5)))</formula>
     </cfRule>
@@ -3348,7 +3335,7 @@
   </conditionalFormatting>
   <dataValidations xWindow="1495" yWindow="249" count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list" sqref="G1:H1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list" sqref="F1:G1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3359,73 +3346,73 @@
           <x14:formula1>
             <xm:f>'CV values'!$B$2:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>E2 E6:E1048576</xm:sqref>
+          <xm:sqref>D2 D6:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'CV values'!$C$2:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>F2 F6:F1048576</xm:sqref>
+          <xm:sqref>E2 E6:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'CV values'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:C2 B4:C4 B6:C1048576</xm:sqref>
+          <xm:sqref>B2 B4 B6:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I1</xm:sqref>
+          <xm:sqref>H1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'CV values'!$D$2:$D$60</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:H2 G6:H1048576</xm:sqref>
+          <xm:sqref>F2:G2 F6:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$D$1:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>M1:N1</xm:sqref>
+          <xm:sqref>L1:M1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'[1]CV values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:H5</xm:sqref>
+          <xm:sqref>F3:G5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'[1]CV values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:C3 E3:F5 B5:C5</xm:sqref>
+          <xm:sqref>B3 D3:E5 B5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$G$1:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>V1:W1</xm:sqref>
+          <xm:sqref>U1:V1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$I$1:$I$12</xm:f>
           </x14:formula1>
-          <xm:sqref>X1:Y1</xm:sqref>
+          <xm:sqref>W1:X1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$E$1:$E$30</xm:f>
           </x14:formula1>
-          <xm:sqref>Q1:U1</xm:sqref>
+          <xm:sqref>P1:T1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$B$1:$B$233</xm:f>
           </x14:formula1>
-          <xm:sqref>J1:K1</xm:sqref>
+          <xm:sqref>I1:J1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/datamares/OLR/OLR_datamares_kelp.xlsx
+++ b/datamares/OLR/OLR_datamares_kelp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="21600" windowHeight="10545"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="21600" windowHeight="10545" tabRatio="511"/>
   </bookViews>
   <sheets>
     <sheet name="Item description" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="639">
   <si>
     <t>text</t>
   </si>
@@ -1899,9 +1899,6 @@
   </si>
   <si>
     <t>Giron-Nava, Alfredo</t>
-  </si>
-  <si>
-    <t>k_po_kelp.xlsx</t>
   </si>
   <si>
     <t>Counting fish in the kelp forests of Baja California</t>
@@ -3099,7 +3096,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,15 +3203,9 @@
       <c r="B2" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>473</v>
-      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
         <v>358</v>
       </c>
@@ -3222,10 +3213,10 @@
         <v>433</v>
       </c>
       <c r="H2" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>626</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>627</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>624</v>
@@ -3237,40 +3228,40 @@
         <v>623</v>
       </c>
       <c r="M2" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>628</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="P2" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="U2" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="V2" s="17" t="s">
         <v>637</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="W2" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="X2" s="19" t="s">
         <v>632</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>636</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>634</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
